--- a/Doc/iteration3/CS673_SPPP_RiskManagement_team2.xlsx
+++ b/Doc/iteration3/CS673_SPPP_RiskManagement_team2.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Iteration0" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Iteration1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Iteration2" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Iteration3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -454,7 +454,7 @@
     <t>Team members have different priorities , group has planned to have a discussion about this issue - keeping open</t>
   </si>
   <si>
-    <t>Certain inconsistenties with group deliverables , introduces uncertainty for the project and team</t>
+    <t>Closing Issue since all deliverables were completed</t>
   </si>
   <si>
     <t>Update - we have reached our goals and desired features for the app so this is not an issue and we are making as closed</t>
@@ -12432,7 +12432,7 @@
         <v>123</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -12642,7 +12642,7 @@
         <v>124</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
